--- a/docs/assets/disciplinas/LOM3218.xlsx
+++ b/docs/assets/disciplinas/LOM3218.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos ingressantes o entendimento do que seja a carreira e as bases conceituais da Engenharia Física.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>A carreira de Engenharia Física. Conceitos básicos de Engenharia. Competências e habilidades de um engenheiro. Física conceitual. Realização de experimentos e projetos de Engenharia Física.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,14 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>A carreira de Engenharia Física. Cientistas x engenheiros: o papel interdisciplinar da Engenharia Física. Campos de atuação. 
-A Física como ciência conceitual: Como aprender Física. Realização de demonstrações e experimentos científicos significativos de Física.
-Conceitos básicos de Engenharia. Habilidades e competências de um engenheiro.
-Desenvolvimento de um projeto temático de Engenharia Física.
-Competição entre projetos de diferentes grupos.
-Avaliação das competições e da disciplina como um todo.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -111,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>As atividades práticas e os projetos que serão desenvolvidos durante as aulas serão avaliados por docentes e pelos alunos (processo de avaliação crítica).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média final será uma composição de fatores relativos à participação do aluno nos trabalhos desenvolvidos, conjuntamente com o rendimento de seu grupo.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Devido às características da disciplina, não será oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>ARAÚJO-MOREIRA, F. M. Engenharia Física: a Carreira do Novo Milênio, São Carlos: Gráfica e Editora Guillen &amp; Andriolli, 2014.
-BAZZO, A. B.; PEREIRA, L.T.V. Introdução à Engenharia. Editora da UFSC, Florianópolis, 1993.
-ALEXANDER, C. K.; WATSON, J. A. Habilidades para uma carreira de sucesso na engenharia, Porto Alegre: AMGH Editora, 2015.
-BROCKMAN, J. B. Introdução à Engenharia. LTC, Rio de Janeiro, 2009.
-KNOWLEDGE FLOW. Engineering Physics - Ebook, Índia, 2015.
-CHAVES, A. S.; VALADARES, E. C.; ALVES, E. G. Aplicações da Física Quântica do Transistor à Nanotecnologia, São Paulo: Livraria da Física, 2005.</t>
   </si>
 </sst>
 </file>
@@ -490,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3218.xlsx
+++ b/docs/assets/disciplinas/LOM3218.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Créditos-aula:</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>Créditos-trabalho</t>
@@ -52,13 +52,13 @@
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>60 h</t>
+    <t>30 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2016</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,28 +76,37 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>To introduce new students to an understanding of what a career is and the conceptual bases of Physical Engineering.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
-  </si>
-  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>The Physics Engineering career. Basic engineering concepts. Skills and Abilities of an Engineer. Conceptual physics. Realization of experiments and projects of Physical Engineering.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>The career of Engineering Physics. Scientists x engineers: the interdisciplinary role of Engineering Physics. Fields of action.Physics as a conceptual science: How to learn Physics. Realization of demonstrations and significant scientific experiments in Physics.Basic engineering concepts. Skills and competences of an engineer.Development of a thematic project of Physical Engineering.Competition between projects from different groups.Evaluation of competitions and the discipline as a whole.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
+  </si>
+  <si>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Critério:</t>
@@ -590,91 +599,109 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3218.xlsx
+++ b/docs/assets/disciplinas/LOM3218.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar aos alunos ingressantes o entendimento do que seja a carreira e as bases conceituais da Engenharia Física.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To introduce new students to an understanding of what a career is and the conceptual bases of Physical Engineering.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To introduce new students to an understanding of what a career is and the conceptual bases of Physical Engineering.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>A carreira de Engenharia Física. Conceitos básicos de Engenharia. Competências e habilidades de um engenheiro. Física conceitual. Realização de experimentos e projetos de Engenharia Física.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>A carreira de Engenharia Física. Cientistas x engenheiros: o papel interdisciplinar da Engenharia Física. Campos de atuação. A Física como ciência conceitual: Como aprender Física. Realização de demonstrações e experimentos científicos significativos de Física.Conceitos básicos de Engenharia. Habilidades e competências de um engenheiro.Desenvolvimento de um projeto temático de Engenharia Física.Competição entre projetos de diferentes grupos.Avaliação das competições e da disciplina como um todo.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,30 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1176388 - Luiz Tadeu Fernandes Eleno</t>
+    <t>As atividades práticas e os projetos que serão desenvolvidos durante as aulas serão avaliados por docentes e pelos alunos (processo de avaliação crítica).</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>As atividades práticas e os projetos que serão desenvolvidos durante as aulas serão avaliados por docentes e pelos alunos (processo de avaliação crítica).</t>
+    <t>A média final será uma composição de fatores relativos à participação do aluno nos trabalhos desenvolvidos, conjuntamente com o rendimento de seu grupo.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A média final será uma composição de fatores relativos à participação do aluno nos trabalhos desenvolvidos, conjuntamente com o rendimento de seu grupo.</t>
+    <t>Devido às características da disciplina, não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Devido às características da disciplina, não será oferecida recuperação.</t>
+    <t>ARAÚJO-MOREIRA, F. M. Engenharia Física: a Carreira do Novo Milênio, São Carlos: Gráfica e Editora Guillen &amp; Andriolli, 2014.
+BAZZO, A. B.; PEREIRA, L.T.V. Introdução à Engenharia. Editora da UFSC, Florianópolis, 1993.
+ALEXANDER, C. K.; WATSON, J. A. Habilidades para uma carreira de sucesso na engenharia, Porto Alegre: AMGH Editora, 2015.
+BROCKMAN, J. B. Introdução à Engenharia. LTC, Rio de Janeiro, 2009.
+KNOWLEDGE FLOW. Engineering Physics - Ebook, Índia, 2015.
+CHAVES, A. S.; VALADARES, E. C.; ALVES, E. G. Aplicações da Física Quântica do Transistor à Nanotecnologia, São Paulo: Livraria da Física, 2005.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,40 +628,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -655,30 +666,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -693,7 +704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -702,6 +713,28 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
